--- a/buylink.nover.vn_v2_fix.xlsx
+++ b/buylink.nover.vn_v2_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
   <si>
     <t>Chuyên Mục</t>
   </si>
@@ -718,6 +718,15 @@
   </si>
   <si>
     <t>Đã fix theo như thiết kế</t>
+  </si>
+  <si>
+    <t>Thiết kế như vậy, không thấy tiếng việt</t>
+  </si>
+  <si>
+    <t>link tới register</t>
+  </si>
+  <si>
+    <t>đã fix: theo thiết kế thì đây là nút share.</t>
   </si>
 </sst>
 </file>
@@ -1836,11 +1845,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EX139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,7 +3227,9 @@
       <c r="D16" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="142"/>
+      <c r="E16" s="142" t="s">
+        <v>115</v>
+      </c>
       <c r="F16" s="142"/>
       <c r="G16" s="142"/>
       <c r="H16" s="142"/>
@@ -3379,7 +3390,9 @@
       <c r="D17" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="142"/>
+      <c r="E17" s="142" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="142"/>
       <c r="G17" s="142"/>
       <c r="H17" s="142"/>
@@ -3540,7 +3553,9 @@
       <c r="D18" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -4192,7 +4207,9 @@
       <c r="D23" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -5013,7 +5030,9 @@
       <c r="D30" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -5173,6 +5192,9 @@
       </c>
       <c r="D31" s="82" t="s">
         <v>33</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:153" ht="15.75" x14ac:dyDescent="0.25">
@@ -5361,6 +5383,9 @@
       <c r="D35" s="82" t="s">
         <v>92</v>
       </c>
+      <c r="E35" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="1:153" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="158" t="s">
@@ -5532,7 +5557,9 @@
       <c r="D37" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -5850,7 +5877,9 @@
       <c r="D39" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="124"/>
+      <c r="E39" s="124" t="s">
+        <v>113</v>
+      </c>
       <c r="F39" s="124"/>
       <c r="G39" s="124"/>
       <c r="H39" s="124"/>
@@ -6179,6 +6208,9 @@
       </c>
       <c r="D42" s="93" t="s">
         <v>33</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:153" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">

--- a/buylink.nover.vn_v2_fix.xlsx
+++ b/buylink.nover.vn_v2_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>Chuyên Mục</t>
   </si>
@@ -178,17 +178,8 @@
  + Mua =&gt; có thể chọn đặt mua / ưa thích </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Gía / tháng =&gt; mặc định của tháng  , không thể chọn 
- - Mua =&gt; chỉ có thể chọn đặt mua, không có nút ưu thích 
- (Thiếu so với design)</t>
-  </si>
-  <si>
     <t>Đặt mua một link vào giỏ hàng =&gt; chọn thanh toán  =&gt; hiển thị thông tin giỏ hàng 
  + ô text nội dung trước từ khóa, từ khóa, sau từ khóa, website =&gt; điền đúng nội dung thông tin trang web giỏ hàng cần mua, link của giỏ hàng cần mua</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - có thể điền các ký tự bất kỳ 
- - link website vẫn có thể điền 1 link bất kỳ ( đúng định dạng URL ) vẫn được</t>
   </si>
   <si>
     <t>Đặt mua một link vào giỏ hàng =&gt; chọn thanh toán  =&gt; hiển thị thông tin giỏ hàng 
@@ -267,169 +258,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">  không mở được trang =&gt; source không có, yêu cầu bỏ đi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - cần đồng bộ ngôn ngữ "I've read the Publisher's Guide"
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://buylink.nover.vn/publishers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">=&gt; đăng Website =&gt; Mô tả về website của bạn . Nhập vài ký tự , hiện thị thông báo "Please enter at least 150 characters." =&gt; yêu cầu: đồng bộ ngôn ngữ
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://buylink.nover.vn/publishers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=&gt; đăng Website =&gt; ra trang "Cập nhật thông tin WEBSITE" =&gt;  ở mục "Cài đặt code/plugin trên website của bạn" =&gt; chọn 1 mã nguồn bất kỳ  "PHP/ Wordpress.." =&gt; ấn button tải về =&gt; không tải về được  =&gt; góc trái trên cùng header của trang của bị lôi " ad_files/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>website</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">_vn.php "
- -  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>http://buylink.nover.vn/publishers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; đăng Website =&gt; ra trang "Cập nhật thông tin WEBSITE" =&gt; ấn button "Cập nhật" =&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>yêu cầu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : hiển thị thông báo "cập nhật thành công " và quay ra lại trang </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"http://buylink.nover.vn/publishers"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> để thấy thông tin website vừa đăng
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> http://buylink.nover.vn/publishers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=&gt; đăng Website =&gt; ra trang "Cập nhật thông tin WEBSITE" =&gt; ấn button "Cập nhật"  =&gt; ra tang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "http://buylink.nover.vn/publishers"  =&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thấy thông tin website vừa đăng =&gt; click vào "Earnings" =&gt; hiển thị trang không có nội dung, chỉ có header, footer
- - Khi đăng thông tin website thành công =&gt;  ra tang "http://buylink.nover.vn/publishers"  =&gt; thấy thông tin website vừa đăng  =&gt; ngoài nút "Edit", "Earnings" =&gt; yêu cầu : thêm nút "Cancel" =&gt; yêu cầu: đồng bộ ngôn ngữ các nút</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -620,13 +448,6 @@
     <t>mở ra 1 trang lỗi 404=&gt; source không có , yêu cầu: xóa đi</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-- yêu cầu hiển thị thông báo khi thay đổi dt di động , chỉ có thể nhập số
- - cần đồng bộ ngôn ngữ câu thông báo
- - Cần hiển thị thông báo chỉ cho chọn file ảnh =&gt; hiển tại chọn file .word, excel,pft ...=&gt; ấn lưu =&gt;thông báo : không có tệp nào được chọn nhưng phía đưới hiển thị file ảnh 
- - Thay đổi mật khẩu : nhập mật khẩu trùng với mật khẩu cũ vẫn được ?</t>
-  </si>
-  <si>
     <t>Trang Nạp tiền : Số tiền nạp (USD) =&gt; nhập 1000 =&gt; ấn button :Thanh toán</t>
   </si>
   <si>
@@ -728,12 +549,319 @@
   <si>
     <t>đã fix: theo thiết kế thì đây là nút share.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - cần đồng bộ ngôn ngữ "I've read the Publisher's Guide"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ( Đã fix )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://buylink.nover.vn/publishers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; đăng Website =&gt; Mô tả về website của bạn . Nhập vài ký tự , hiện thị thông báo "Please enter at least 150 characters." =&gt; yêu cầu: đồng bộ ngôn ngữ  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>( Đã fix )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://buylink.nover.vn/publishers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=&gt; đăng Website =&gt; ra trang "Cập nhật thông tin WEBSITE" =&gt;  ở mục "Cài đặt code/plugin trên website của bạn" =&gt; chọn 1 mã nguồn bất kỳ  "PHP/ Wordpress.." =&gt; ấn button tải về =&gt; không tải về được  =&gt; góc trái trên cùng header của trang của bị lôi " ad_files/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>website</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">_vn.php "  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>( Đã fix )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://buylink.nover.vn/publishers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; đăng Website =&gt; ra trang "Cập nhật thông tin WEBSITE" =&gt; ấn button "Cập nhật" =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : hiển thị thông báo "cập nhật thành công " và quay ra lại trang </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"http://buylink.nover.vn/publishers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> để thấy thông tin website vừa đăng
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> http://buylink.nover.vn/publishers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=&gt; đăng Website =&gt; ra trang "Cập nhật thông tin WEBSITE" =&gt; ấn button "Cập nhật"  =&gt; ra tang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "http://buylink.nover.vn/publishers"  =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thấy thông tin website vừa đăng =&gt; click vào "Earnings" =&gt; hiển thị trang không có nội dung, chỉ có header, footer
+ - Khi đăng thông tin website thành công =&gt;  ra tang "http://buylink.nover.vn/publishers"  =&gt; thấy thông tin website vừa đăng  =&gt; ngoài nút "Edit", "Earnings" =&gt; yêu cầu : thêm nút "Cancel" =&gt; yêu cầu: đồng bộ ngôn ngữ các nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>( Source không có )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Gía / tháng =&gt; mặc định của tháng  , không thể chọn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Source code mặc định như vậy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Mua =&gt; chỉ có thể chọn đặt mua, không có nút ưu thích  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Source code không có chức năng này)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ (Thiếu so với design)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - có thể điền các ký tự bất kỳ 
+ - link website vẫn có thể điền 1 link bất kỳ ( đúng định dạng URL ) vẫn được </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Phải validate link, đúng định dạng link mới được đi tiếp, các tiền tố http://, https://, www là rất cần để đảm bảo link chính xác)</t>
+    </r>
+  </si>
+  <si>
+    <t>Source code là như vậy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 
+- yêu cầu hiển thị thông báo khi thay đổi dt di động , chỉ có thể nhập số 
+ - cần đồng bộ ngôn ngữ câu thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Cần hiển thị thông báo chỉ cho chọn file ảnh =&gt; hiển tại chọn file .word, excel,pft ...=&gt; ấn lưu =&gt;thông báo : không có tệp nào được chọn nhưng phía đưới hiển thị file ảnh 
+ - Thay đổi mật khẩu : nhập mật khẩu trùng với mật khẩu cũ vẫn được ?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,6 +1048,25 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1846,10 +1993,10 @@
   <dimension ref="A1:EX139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -2380,7 +2527,7 @@
     <row r="8" spans="1:153" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="168"/>
       <c r="B8" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -2390,7 +2537,7 @@
     <row r="9" spans="1:153" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="169"/>
       <c r="B9" s="38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
@@ -2570,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2730,10 +2877,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="144" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="138" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F12" s="124"/>
       <c r="G12" s="124"/>
@@ -2893,16 +3040,16 @@
     <row r="14" spans="1:153" s="138" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="168"/>
       <c r="B14" s="139" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="140" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="124" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F14" s="141"/>
       <c r="G14" s="141"/>
@@ -3056,7 +3203,7 @@
     <row r="15" spans="1:153" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="168"/>
       <c r="B15" s="38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
@@ -3065,7 +3212,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -3219,16 +3366,16 @@
     <row r="16" spans="1:153" s="143" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="168"/>
       <c r="B16" s="136" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="140" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="144" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="142" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F16" s="142"/>
       <c r="G16" s="142"/>
@@ -3382,16 +3529,16 @@
     <row r="17" spans="1:153" s="138" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="168"/>
       <c r="B17" s="144" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="128" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="144" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" s="142" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F17" s="142"/>
       <c r="G17" s="142"/>
@@ -3545,16 +3692,16 @@
     <row r="18" spans="1:153" s="146" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="168"/>
       <c r="B18" s="145" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="145" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -3869,13 +4016,13 @@
     <row r="20" spans="1:153" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="169"/>
       <c r="B20" s="135" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="113" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="114"/>
@@ -4208,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -4362,7 +4509,7 @@
     <row r="24" spans="1:153" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="159"/>
       <c r="B24" s="66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="108" t="s">
         <v>8</v>
@@ -4527,9 +4674,11 @@
         <v>9</v>
       </c>
       <c r="D25" s="123" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
-      <c r="E25" s="124"/>
+      <c r="E25" s="124" t="s">
+        <v>109</v>
+      </c>
       <c r="F25" s="124"/>
       <c r="G25" s="124"/>
       <c r="H25" s="124"/>
@@ -4682,13 +4831,13 @@
     <row r="26" spans="1:153" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A26" s="160"/>
       <c r="B26" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -5010,28 +5159,28 @@
     <row r="29" spans="1:153" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="159"/>
       <c r="B29" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:153" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="159"/>
       <c r="B30" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -5185,7 +5334,7 @@
     <row r="31" spans="1:153" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="159"/>
       <c r="B31" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>9</v>
@@ -5194,7 +5343,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:153" ht="15.75" x14ac:dyDescent="0.25">
@@ -5375,16 +5524,16 @@
     <row r="35" spans="1:153" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="159"/>
       <c r="B35" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:153" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5555,10 +5704,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -5869,16 +6018,16 @@
     <row r="39" spans="1:153" s="149" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="159"/>
       <c r="B39" s="147" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" s="148" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="131" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E39" s="124" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F39" s="124"/>
       <c r="G39" s="124"/>
@@ -6197,11 +6346,14 @@
       <c r="D41" s="82" t="s">
         <v>32</v>
       </c>
+      <c r="E41" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:153" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="160"/>
       <c r="B42" s="44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>9</v>
@@ -6210,7 +6362,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:153" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6383,7 +6535,9 @@
       <c r="D44" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -6695,13 +6849,13 @@
     <row r="46" spans="1:153" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="159"/>
       <c r="B46" s="126" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -6862,9 +7016,11 @@
         <v>9</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -7023,7 +7179,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -7178,13 +7334,13 @@
     <row r="49" spans="1:154" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="159"/>
       <c r="B49" s="126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -7339,7 +7495,7 @@
     <row r="50" spans="1:154" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="159"/>
       <c r="B50" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>8</v>
@@ -7498,13 +7654,13 @@
     <row r="51" spans="1:154" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="159"/>
       <c r="B51" s="126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -7665,7 +7821,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="131" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52" s="124"/>
       <c r="F52" s="124"/>
@@ -7985,7 +8141,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="132" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E54" s="124"/>
       <c r="F54" s="124"/>
@@ -8455,16 +8611,16 @@
     <row r="57" spans="1:154" s="125" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="159"/>
       <c r="B57" s="133" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C57" s="128" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="152" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E57" s="124" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F57" s="124"/>
       <c r="G57" s="124"/>
@@ -8619,16 +8775,16 @@
     <row r="58" spans="1:154" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="159"/>
       <c r="B58" s="55" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -8783,16 +8939,16 @@
     <row r="59" spans="1:154" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="159"/>
       <c r="B59" s="55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -8947,16 +9103,16 @@
     <row r="60" spans="1:154" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="159"/>
       <c r="B60" s="133" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" s="128" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="131" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E60" s="124" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F60" s="124"/>
       <c r="G60" s="124"/>
@@ -9425,15 +9581,17 @@
     <row r="63" spans="1:154" s="20" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="162"/>
       <c r="B63" s="54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="98" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -9587,13 +9745,13 @@
     <row r="64" spans="1:154" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="162"/>
       <c r="B64" s="54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="98" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -9749,7 +9907,7 @@
     <row r="65" spans="1:154" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="162"/>
       <c r="B65" s="151" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="98"/>
@@ -9907,15 +10065,17 @@
     <row r="66" spans="1:154" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="162"/>
       <c r="B66" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
-      <c r="E66" s="11"/>
+      <c r="E66" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -10224,7 +10384,7 @@
     </row>
     <row r="68" spans="1:154" s="120" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="155" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="70"/>
       <c r="C68" s="116"/>
@@ -10383,13 +10543,13 @@
     <row r="69" spans="1:154" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="156"/>
       <c r="B69" s="54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -11013,7 +11173,7 @@
     <row r="73" spans="1:154" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="153" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="98"/>
@@ -11171,7 +11331,7 @@
     <row r="74" spans="1:154" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="154" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="100"/>
@@ -11329,7 +11489,7 @@
     <row r="75" spans="1:154" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="154" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="99"/>
